--- a/Gestao de Vendas x SAP/apoio - contratos/Template Contratos SAP.xlsx
+++ b/Gestao de Vendas x SAP/apoio - contratos/Template Contratos SAP.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="20730" windowHeight="9855" tabRatio="816" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="20730" windowHeight="9855" tabRatio="816" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contratos" sheetId="3" r:id="rId1"/>
     <sheet name="Codificacao Contratos" sheetId="4" r:id="rId2"/>
+    <sheet name="Grupos e Produtos" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="242">
   <si>
     <t>Razão Social</t>
   </si>
@@ -691,6 +692,57 @@
   </si>
   <si>
     <t>VOLFEM</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Produto/Serviço</t>
+  </si>
+  <si>
+    <t>Locação Equipamentos</t>
+  </si>
+  <si>
+    <t>Infraestrutura de Telecom</t>
+  </si>
+  <si>
+    <t>Captuvo para controle de acesso</t>
+  </si>
+  <si>
+    <t>Leitor e Tablet para controle de acesso</t>
+  </si>
+  <si>
+    <t>Catraca para controle de acesso</t>
+  </si>
+  <si>
+    <t>Serviços de Suporte</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Serviços de Terceiros</t>
+  </si>
+  <si>
+    <t>Serviços de Divulgação</t>
+  </si>
+  <si>
+    <t>Utilização Sistema</t>
+  </si>
+  <si>
+    <t>Venda de Ingressos</t>
+  </si>
+  <si>
+    <t>Controle de Acesso</t>
+  </si>
+  <si>
+    <t>Digital Signage (sistema de tvs)</t>
+  </si>
+  <si>
+    <t>Anti Fraude</t>
+  </si>
+  <si>
+    <t>Gateway de Pagamento</t>
   </si>
 </sst>
 </file>
@@ -856,15 +908,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -880,6 +923,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1001,10 +1053,10 @@
     <tableColumn id="4" name="Sigla2"/>
     <tableColumn id="5" name="Ano"/>
     <tableColumn id="6" name="Mês"/>
-    <tableColumn id="7" name="Codigo Projeto" dataDxfId="0">
+    <tableColumn id="7" name="Codigo Projeto" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(B9,"-",D9,"-",E9,F9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Codigo Projeto3" dataDxfId="1">
+    <tableColumn id="8" name="Codigo Projeto3" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(B9,"-",E9,F9,"-",D9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1299,9 +1351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D162"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1314,7 +1366,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1325,7 +1377,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1334,7 +1386,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
@@ -1343,7 +1395,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
         <v>80</v>
       </c>
@@ -1352,7 +1404,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1413,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1370,7 +1422,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="1" t="s">
         <v>74</v>
       </c>
@@ -1379,7 +1431,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +1440,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1399,7 +1451,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1460,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
@@ -1417,7 +1469,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1478,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1435,7 +1487,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1444,7 +1496,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1505,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1462,7 +1514,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -1475,7 +1527,7 @@
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1486,14 +1538,14 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1554,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1563,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +1572,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -1529,7 +1581,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
@@ -1538,7 +1590,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="4" t="s">
         <v>77</v>
       </c>
@@ -1551,7 +1603,7 @@
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1562,7 +1614,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="4" t="s">
         <v>130</v>
       </c>
@@ -1571,7 +1623,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="21"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="4" t="s">
         <v>131</v>
       </c>
@@ -1580,7 +1632,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="4" t="s">
         <v>79</v>
       </c>
@@ -1589,7 +1641,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="4" t="s">
         <v>132</v>
       </c>
@@ -1598,7 +1650,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="4" t="s">
         <v>133</v>
       </c>
@@ -1607,7 +1659,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="21"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="4" t="s">
         <v>134</v>
       </c>
@@ -1616,7 +1668,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="4" t="s">
         <v>146</v>
       </c>
@@ -1625,7 +1677,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="21"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="4" t="s">
         <v>135</v>
       </c>
@@ -1634,7 +1686,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="4" t="s">
         <v>136</v>
       </c>
@@ -1643,7 +1695,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="21"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="4" t="s">
         <v>89</v>
       </c>
@@ -1652,7 +1704,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="21"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="4" t="s">
         <v>110</v>
       </c>
@@ -1661,7 +1713,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="7" t="s">
         <v>78</v>
       </c>
@@ -1674,7 +1726,7 @@
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1683,7 +1735,7 @@
       <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A45" s="21"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="4" t="s">
         <v>89</v>
       </c>
@@ -1692,7 +1744,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="21"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="4" t="s">
         <v>156</v>
       </c>
@@ -1701,12 +1753,12 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="4"/>
       <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A48" s="21"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="4" t="s">
         <v>93</v>
       </c>
@@ -1715,7 +1767,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="21"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="4" t="s">
         <v>107</v>
       </c>
@@ -1724,7 +1776,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="21"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="4" t="s">
         <v>120</v>
       </c>
@@ -1733,12 +1785,12 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="21"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="21"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="4" t="s">
         <v>95</v>
       </c>
@@ -1747,7 +1799,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="21"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
@@ -1756,7 +1808,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="21"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="4" t="s">
         <v>120</v>
       </c>
@@ -1770,7 +1822,7 @@
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1781,7 +1833,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="21"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="4" t="s">
         <v>118</v>
       </c>
@@ -1793,12 +1845,12 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="21"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="4"/>
       <c r="C58" s="17"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="21"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="4" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1859,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="21"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="4" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1868,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="21"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="4" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1877,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="21"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="4" t="s">
         <v>13</v>
       </c>
@@ -1838,7 +1890,7 @@
       <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -1849,7 +1901,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="21"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="1" t="s">
         <v>115</v>
       </c>
@@ -1858,7 +1910,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="21"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="4" t="s">
         <v>113</v>
       </c>
@@ -1867,7 +1919,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="21"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="4" t="s">
         <v>116</v>
       </c>
@@ -1876,7 +1928,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -1887,7 +1939,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="21"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="1" t="s">
         <v>115</v>
       </c>
@@ -1896,7 +1948,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="21"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="4" t="s">
         <v>113</v>
       </c>
@@ -1905,7 +1957,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="21"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="4" t="s">
         <v>116</v>
       </c>
@@ -1914,7 +1966,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -1925,7 +1977,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="21"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="1" t="s">
         <v>115</v>
       </c>
@@ -1934,7 +1986,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="21"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="4" t="s">
         <v>113</v>
       </c>
@@ -1943,7 +1995,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="21"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="4" t="s">
         <v>116</v>
       </c>
@@ -1952,7 +2004,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -1963,7 +2015,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="21"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="1" t="s">
         <v>115</v>
       </c>
@@ -1972,7 +2024,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="21"/>
+      <c r="A81" s="28"/>
       <c r="B81" s="4" t="s">
         <v>113</v>
       </c>
@@ -1981,7 +2033,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="21"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="4" t="s">
         <v>116</v>
       </c>
@@ -1990,7 +2042,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -2001,7 +2053,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="21"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="1" t="s">
         <v>115</v>
       </c>
@@ -2010,7 +2062,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="21"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="4" t="s">
         <v>113</v>
       </c>
@@ -2019,7 +2071,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="21"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="4" t="s">
         <v>116</v>
       </c>
@@ -2028,7 +2080,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2039,7 +2091,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="22"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="1" t="s">
         <v>160</v>
       </c>
@@ -2048,7 +2100,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="22"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="4" t="s">
         <v>121</v>
       </c>
@@ -2057,7 +2109,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="22"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="4" t="s">
         <v>125</v>
       </c>
@@ -2066,7 +2118,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="22"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="4" t="s">
         <v>126</v>
       </c>
@@ -2075,7 +2127,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="22"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="4" t="s">
         <v>122</v>
       </c>
@@ -2084,7 +2136,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="22"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="4" t="s">
         <v>152</v>
       </c>
@@ -2093,7 +2145,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="22"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="4" t="s">
         <v>163</v>
       </c>
@@ -2102,7 +2154,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="22"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="4" t="s">
         <v>164</v>
       </c>
@@ -2111,7 +2163,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="22"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="4" t="s">
         <v>165</v>
       </c>
@@ -2120,7 +2172,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="22"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="4" t="s">
         <v>123</v>
       </c>
@@ -2129,7 +2181,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="22"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="4" t="s">
         <v>153</v>
       </c>
@@ -2138,7 +2190,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="22"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="4" t="s">
         <v>154</v>
       </c>
@@ -2147,7 +2199,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="22"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="4" t="s">
         <v>155</v>
       </c>
@@ -2156,7 +2208,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="22"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="4" t="s">
         <v>127</v>
       </c>
@@ -2165,7 +2217,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="22"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="4" t="s">
         <v>128</v>
       </c>
@@ -2174,7 +2226,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="22"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="4" t="s">
         <v>157</v>
       </c>
@@ -2183,7 +2235,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="22"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="4" t="s">
         <v>129</v>
       </c>
@@ -2192,7 +2244,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="22"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="4" t="s">
         <v>138</v>
       </c>
@@ -2201,7 +2253,7 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="22"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="4" t="s">
         <v>158</v>
       </c>
@@ -2210,7 +2262,7 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="22"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="4" t="s">
         <v>139</v>
       </c>
@@ -2219,7 +2271,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="22"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="4" t="s">
         <v>140</v>
       </c>
@@ -2228,7 +2280,7 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="22"/>
+      <c r="A111" s="29"/>
       <c r="B111" s="4" t="s">
         <v>141</v>
       </c>
@@ -2237,7 +2289,7 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="22"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="4" t="s">
         <v>142</v>
       </c>
@@ -2246,7 +2298,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="22"/>
+      <c r="A113" s="29"/>
       <c r="B113" s="4" t="s">
         <v>124</v>
       </c>
@@ -2556,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2571,10 +2623,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2611,7 +2663,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
@@ -2637,7 +2689,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
@@ -2652,20 +2704,20 @@
       <c r="E9">
         <v>2016</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="30" t="str">
+      <c r="G9" s="27" t="str">
         <f t="shared" ref="G9:G20" si="0">CONCATENATE(B9,"-",D9,"-",E9,F9)</f>
         <v>CIN-CIMARK-201601</v>
       </c>
-      <c r="H9" s="30" t="str">
+      <c r="H9" s="27" t="str">
         <f t="shared" ref="H9:H20" si="1">CONCATENATE(B9,"-",E9,F9,"-",D9)</f>
         <v>CIN-201601-CIMARK</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B10" t="s">
@@ -2680,20 +2732,20 @@
       <c r="E10">
         <v>2016</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="G10" s="30" t="str">
+      <c r="G10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CIR-SOLEIA-201602</v>
       </c>
-      <c r="H10" s="30" t="str">
+      <c r="H10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CIR-201602-SOLEIA</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
@@ -2708,20 +2760,20 @@
       <c r="E11">
         <v>2016</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="G11" s="30" t="str">
+      <c r="G11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>CLA-BETHOV-201603</v>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="H11" s="27" t="str">
         <f t="shared" si="1"/>
         <v>CLA-201603-BETHOV</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
@@ -2736,20 +2788,20 @@
       <c r="E12">
         <v>2016</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="30" t="str">
+      <c r="G12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>DAN-CLRAIA-201604</v>
       </c>
-      <c r="H12" s="30" t="str">
+      <c r="H12" s="27" t="str">
         <f t="shared" si="1"/>
         <v>DAN-201604-CLRAIA</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B13" t="s">
@@ -2764,20 +2816,20 @@
       <c r="E13">
         <v>2016</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="G13" s="30" t="str">
+      <c r="G13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>OUT-BOCELL-201605</v>
       </c>
-      <c r="H13" s="30" t="str">
+      <c r="H13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>OUT-201605-BOCELL</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
@@ -2792,20 +2844,20 @@
       <c r="E14">
         <v>2016</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>ESP-VOLFEM-201606</v>
       </c>
-      <c r="H14" s="30" t="str">
+      <c r="H14" s="27" t="str">
         <f t="shared" si="1"/>
         <v>ESP-201606-VOLFEM</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B15" t="s">
@@ -2820,20 +2872,20 @@
       <c r="E15">
         <v>2016</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="G15" s="30" t="str">
+      <c r="G15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>EXP-HENDRI-201607</v>
       </c>
-      <c r="H15" s="30" t="str">
+      <c r="H15" s="27" t="str">
         <f t="shared" si="1"/>
         <v>EXP-201607-HENDRI</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B16" t="s">
@@ -2848,20 +2900,20 @@
       <c r="E16">
         <v>2016</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="30" t="str">
+      <c r="G16" s="27" t="str">
         <f t="shared" si="0"/>
         <v>EVE-DNOIVA-201608</v>
       </c>
-      <c r="H16" s="30" t="str">
+      <c r="H16" s="27" t="str">
         <f t="shared" si="1"/>
         <v>EVE-201608-DNOIVA</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B17" t="s">
@@ -2876,20 +2928,20 @@
       <c r="E17">
         <v>2016</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="30" t="str">
+      <c r="G17" s="27" t="str">
         <f t="shared" si="0"/>
         <v>FES-BIROSK-201609</v>
       </c>
-      <c r="H17" s="30" t="str">
+      <c r="H17" s="27" t="str">
         <f t="shared" si="1"/>
         <v>FES-201609-BIROSK</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B18" t="s">
@@ -2904,20 +2956,20 @@
       <c r="E18">
         <v>2016</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>SHO-LEALEO-201610</v>
       </c>
-      <c r="H18" s="30" t="str">
+      <c r="H18" s="27" t="str">
         <f t="shared" si="1"/>
         <v>SHO-201610-LEALEO</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B19" t="s">
@@ -2932,20 +2984,20 @@
       <c r="E19">
         <v>2016</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="30" t="str">
+      <c r="G19" s="27" t="str">
         <f t="shared" si="0"/>
         <v>TEA-RENAIS-201611</v>
       </c>
-      <c r="H19" s="30" t="str">
+      <c r="H19" s="27" t="str">
         <f t="shared" si="1"/>
         <v>TEA-201611-RENAIS</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B20" t="s">
@@ -2960,14 +3012,14 @@
       <c r="E20">
         <v>2016</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="30" t="str">
+      <c r="G20" s="27" t="str">
         <f t="shared" si="0"/>
         <v>PAR-BECARR-201612</v>
       </c>
-      <c r="H20" s="30" t="str">
+      <c r="H20" s="27" t="str">
         <f t="shared" si="1"/>
         <v>PAR-201612-BECARR</v>
       </c>
@@ -2979,4 +3031,251 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B23">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gestao de Vendas x SAP/apoio - contratos/Template Contratos SAP.xlsx
+++ b/Gestao de Vendas x SAP/apoio - contratos/Template Contratos SAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="20730" windowHeight="9855" tabRatio="816" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="20730" windowHeight="9855" tabRatio="816"/>
   </bookViews>
   <sheets>
     <sheet name="Contratos" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="243">
   <si>
     <t>Razão Social</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>Gateway de Pagamento</t>
+  </si>
+  <si>
+    <t>por transacao / mensal / por dia / por apresentacao</t>
   </si>
 </sst>
 </file>
@@ -1351,17 +1354,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D162"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B86" sqref="B86"/>
+      <selection pane="topRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="9" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2153,7 +2156,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" s="29"/>
       <c r="B97" s="4" t="s">
         <v>164</v>
@@ -2162,7 +2165,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" s="29"/>
       <c r="B98" s="4" t="s">
         <v>165</v>
@@ -2171,7 +2174,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" s="29"/>
       <c r="B99" s="4" t="s">
         <v>123</v>
@@ -2180,7 +2183,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" s="29"/>
       <c r="B100" s="4" t="s">
         <v>153</v>
@@ -2189,7 +2192,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" s="29"/>
       <c r="B101" s="4" t="s">
         <v>154</v>
@@ -2198,7 +2201,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" s="29"/>
       <c r="B102" s="4" t="s">
         <v>155</v>
@@ -2206,8 +2209,11 @@
       <c r="C102" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="29"/>
       <c r="B103" s="4" t="s">
         <v>127</v>
@@ -2216,7 +2222,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" s="29"/>
       <c r="B104" s="4" t="s">
         <v>128</v>
@@ -2225,7 +2231,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" s="29"/>
       <c r="B105" s="4" t="s">
         <v>157</v>
@@ -2234,7 +2240,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" s="29"/>
       <c r="B106" s="4" t="s">
         <v>129</v>
@@ -2243,7 +2249,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" s="29"/>
       <c r="B107" s="4" t="s">
         <v>138</v>
@@ -2252,7 +2258,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" s="29"/>
       <c r="B108" s="4" t="s">
         <v>158</v>
@@ -2261,7 +2267,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" s="29"/>
       <c r="B109" s="4" t="s">
         <v>139</v>
@@ -2270,7 +2276,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" s="29"/>
       <c r="B110" s="4" t="s">
         <v>140</v>
@@ -2279,7 +2285,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" s="29"/>
       <c r="B111" s="4" t="s">
         <v>141</v>
@@ -2288,7 +2294,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" s="29"/>
       <c r="B112" s="4" t="s">
         <v>142</v>
@@ -2608,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3037,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
